--- a/Code/Results/Cases/Case_5_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9952238526099463</v>
+        <v>1.026888833949624</v>
       </c>
       <c r="D2">
-        <v>1.01704768033754</v>
+        <v>1.034688655946679</v>
       </c>
       <c r="E2">
-        <v>1.002333518808433</v>
+        <v>1.027055598426267</v>
       </c>
       <c r="F2">
-        <v>1.016669208172256</v>
+        <v>1.041745439449038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045167953476827</v>
+        <v>1.032308198255865</v>
       </c>
       <c r="J2">
-        <v>1.017548361945745</v>
+        <v>1.032049764430267</v>
       </c>
       <c r="K2">
-        <v>1.028274514955202</v>
+        <v>1.03748741061062</v>
       </c>
       <c r="L2">
-        <v>1.013760439458314</v>
+        <v>1.029876442648579</v>
       </c>
       <c r="M2">
-        <v>1.027901098171244</v>
+        <v>1.044524084905264</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9998807841729216</v>
+        <v>1.027866144984696</v>
       </c>
       <c r="D3">
-        <v>1.020569778288934</v>
+        <v>1.035436508606352</v>
       </c>
       <c r="E3">
-        <v>1.00605119993328</v>
+        <v>1.027885583570499</v>
       </c>
       <c r="F3">
-        <v>1.020939507284059</v>
+        <v>1.04268788861945</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046458902231349</v>
+        <v>1.03248595447643</v>
       </c>
       <c r="J3">
-        <v>1.020374699659715</v>
+        <v>1.032666883976673</v>
       </c>
       <c r="K3">
-        <v>1.030946059812895</v>
+        <v>1.038044666466242</v>
       </c>
       <c r="L3">
-        <v>1.016607235628451</v>
+        <v>1.030514011875563</v>
       </c>
       <c r="M3">
-        <v>1.031311294157934</v>
+        <v>1.045276878749219</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.002830229573601</v>
+        <v>1.028498742283244</v>
       </c>
       <c r="D4">
-        <v>1.022800782213393</v>
+        <v>1.035920201214203</v>
       </c>
       <c r="E4">
-        <v>1.008412035268149</v>
+        <v>1.028423216254621</v>
       </c>
       <c r="F4">
-        <v>1.023647898262848</v>
+        <v>1.043298023170621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047261303376976</v>
+        <v>1.032599109429178</v>
       </c>
       <c r="J4">
-        <v>1.022161813827115</v>
+        <v>1.033065829382879</v>
       </c>
       <c r="K4">
-        <v>1.032631594955665</v>
+        <v>1.03840436773182</v>
       </c>
       <c r="L4">
-        <v>1.018409983654705</v>
+        <v>1.030926494089154</v>
       </c>
       <c r="M4">
-        <v>1.033469051827332</v>
+        <v>1.045763670943159</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.004055433186566</v>
+        <v>1.028764736190355</v>
       </c>
       <c r="D5">
-        <v>1.023727552917221</v>
+        <v>1.036123492101626</v>
       </c>
       <c r="E5">
-        <v>1.009394183874937</v>
+        <v>1.028649373964757</v>
       </c>
       <c r="F5">
-        <v>1.02477383406788</v>
+        <v>1.043554596009449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047590913176677</v>
+        <v>1.032646232566291</v>
       </c>
       <c r="J5">
-        <v>1.022903440795074</v>
+        <v>1.033233456081535</v>
       </c>
       <c r="K5">
-        <v>1.033330160347501</v>
+        <v>1.038555374351527</v>
       </c>
       <c r="L5">
-        <v>1.019158746062935</v>
+        <v>1.031099884506132</v>
       </c>
       <c r="M5">
-        <v>1.034364837629214</v>
+        <v>1.045968241702309</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.004260301305255</v>
+        <v>1.0288094006502</v>
       </c>
       <c r="D6">
-        <v>1.023882518330561</v>
+        <v>1.036157622362469</v>
       </c>
       <c r="E6">
-        <v>1.009558494562172</v>
+        <v>1.028687354835367</v>
       </c>
       <c r="F6">
-        <v>1.024962153010331</v>
+        <v>1.043597679921152</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047645808019934</v>
+        <v>1.032654118504461</v>
       </c>
       <c r="J6">
-        <v>1.023027404572661</v>
+        <v>1.033261596042535</v>
       </c>
       <c r="K6">
-        <v>1.033446872400447</v>
+        <v>1.038580716578932</v>
       </c>
       <c r="L6">
-        <v>1.019283940630262</v>
+        <v>1.031128996490909</v>
       </c>
       <c r="M6">
-        <v>1.034514589507318</v>
+        <v>1.046002585504775</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.002846658021435</v>
+        <v>1.028502296311227</v>
       </c>
       <c r="D7">
-        <v>1.022813209097095</v>
+        <v>1.035922917808771</v>
       </c>
       <c r="E7">
-        <v>1.008425198967206</v>
+        <v>1.028426237648432</v>
       </c>
       <c r="F7">
-        <v>1.023662992293631</v>
+        <v>1.043301451226986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047265737761326</v>
+        <v>1.032599740848904</v>
       </c>
       <c r="J7">
-        <v>1.022171761101883</v>
+        <v>1.033068069573541</v>
       </c>
       <c r="K7">
-        <v>1.032640968268786</v>
+        <v>1.03840638632312</v>
       </c>
       <c r="L7">
-        <v>1.018420024075029</v>
+        <v>1.030928811008739</v>
       </c>
       <c r="M7">
-        <v>1.033481065433661</v>
+        <v>1.045766404730327</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9968112588772435</v>
+        <v>1.02721907654529</v>
       </c>
       <c r="D8">
-        <v>1.018248154024626</v>
+        <v>1.034941440640784</v>
       </c>
       <c r="E8">
-        <v>1.003599420061067</v>
+        <v>1.027335975668092</v>
       </c>
       <c r="F8">
-        <v>1.018123991380307</v>
+        <v>1.042063880287148</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045611155242569</v>
+        <v>1.032368657604953</v>
       </c>
       <c r="J8">
-        <v>1.018512365832466</v>
+        <v>1.032258399432114</v>
       </c>
       <c r="K8">
-        <v>1.029186488081024</v>
+        <v>1.037675919563112</v>
       </c>
       <c r="L8">
-        <v>1.014730854667941</v>
+        <v>1.030091925635987</v>
       </c>
       <c r="M8">
-        <v>1.029063932931396</v>
+        <v>1.044778559838646</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.985660227634064</v>
+        <v>1.024959530446506</v>
       </c>
       <c r="D9">
-        <v>1.009819196137185</v>
+        <v>1.033210338294153</v>
       </c>
       <c r="E9">
-        <v>0.994735543879268</v>
+        <v>1.025419263077522</v>
       </c>
       <c r="F9">
-        <v>1.007922970661558</v>
+        <v>1.039885525481526</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042435539326029</v>
+        <v>1.031947203399675</v>
       </c>
       <c r="J9">
-        <v>1.011729724492173</v>
+        <v>1.030828843421801</v>
       </c>
       <c r="K9">
-        <v>1.022754947518786</v>
+        <v>1.036382043242561</v>
       </c>
       <c r="L9">
-        <v>1.007914614594372</v>
+        <v>1.028616747355216</v>
       </c>
       <c r="M9">
-        <v>1.020888797889596</v>
+        <v>1.043035480055883</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9778397569977384</v>
+        <v>1.023454314194847</v>
       </c>
       <c r="D10">
-        <v>1.003916012463087</v>
+        <v>1.032055258775724</v>
       </c>
       <c r="E10">
-        <v>0.9885580484315071</v>
+        <v>1.024144526024412</v>
       </c>
       <c r="F10">
-        <v>1.000794672035534</v>
+        <v>1.038434974015942</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040131899282672</v>
+        <v>1.031656687525171</v>
       </c>
       <c r="J10">
-        <v>1.006961043022844</v>
+        <v>1.029873962585304</v>
       </c>
       <c r="K10">
-        <v>1.018214920239088</v>
+        <v>1.035515010905864</v>
       </c>
       <c r="L10">
-        <v>1.003137010294535</v>
+        <v>1.02763302454747</v>
       </c>
       <c r="M10">
-        <v>1.015149593241531</v>
+        <v>1.041871895214608</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9743520944737364</v>
+        <v>1.022802818411988</v>
       </c>
       <c r="D11">
-        <v>1.001286423034925</v>
+        <v>1.0315548718669</v>
       </c>
       <c r="E11">
-        <v>0.985813185940196</v>
+        <v>1.023593293024358</v>
       </c>
       <c r="F11">
-        <v>0.9976227163144556</v>
+        <v>1.037807282919504</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039087285233878</v>
+        <v>1.031528634482486</v>
       </c>
       <c r="J11">
-        <v>1.004832199441642</v>
+        <v>1.029460061131233</v>
       </c>
       <c r="K11">
-        <v>1.016184120010157</v>
+        <v>1.035138532855439</v>
       </c>
       <c r="L11">
-        <v>1.00100769743713</v>
+        <v>1.027207008016314</v>
       </c>
       <c r="M11">
-        <v>1.012589604409047</v>
+        <v>1.041367699481474</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9730405016654572</v>
+        <v>1.022560865349372</v>
       </c>
       <c r="D12">
-        <v>1.000298074430269</v>
+        <v>1.031368972522701</v>
       </c>
       <c r="E12">
-        <v>0.9847825281525511</v>
+        <v>1.023388652268683</v>
       </c>
       <c r="F12">
-        <v>0.9964309846119827</v>
+        <v>1.037574192752013</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038691924446542</v>
+        <v>1.031480731256632</v>
       </c>
       <c r="J12">
-        <v>1.00403134337683</v>
+        <v>1.029306255566065</v>
       </c>
       <c r="K12">
-        <v>1.015419566031718</v>
+        <v>1.034998535667918</v>
       </c>
       <c r="L12">
-        <v>1.00020719572328</v>
+        <v>1.027048758583374</v>
       </c>
       <c r="M12">
-        <v>1.011626882247221</v>
+        <v>1.041180366235032</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9733225873086373</v>
+        <v>1.022612763217663</v>
       </c>
       <c r="D13">
-        <v>1.00051061307076</v>
+        <v>1.031408850054329</v>
       </c>
       <c r="E13">
-        <v>0.9850041195608352</v>
+        <v>1.023432543332632</v>
       </c>
       <c r="F13">
-        <v>0.9966872390277191</v>
+        <v>1.037624188549985</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038777067505484</v>
+        <v>1.031491021975425</v>
       </c>
       <c r="J13">
-        <v>1.004203595554346</v>
+        <v>1.029339250272519</v>
       </c>
       <c r="K13">
-        <v>1.015584036019049</v>
+        <v>1.035028572606837</v>
       </c>
       <c r="L13">
-        <v>1.000379347649753</v>
+        <v>1.027082703969761</v>
       </c>
       <c r="M13">
-        <v>1.011833934435634</v>
+        <v>1.041220552212835</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9742440120430687</v>
+        <v>1.022782817647329</v>
       </c>
       <c r="D14">
-        <v>1.001204965910134</v>
+        <v>1.031539506043062</v>
       </c>
       <c r="E14">
-        <v>0.9857282212653727</v>
+        <v>1.023576375070371</v>
       </c>
       <c r="F14">
-        <v>0.9975244875690604</v>
+        <v>1.037788014337435</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039054756016678</v>
+        <v>1.031524681691402</v>
       </c>
       <c r="J14">
-        <v>1.004766209651106</v>
+        <v>1.029447348819388</v>
       </c>
       <c r="K14">
-        <v>1.016121133140249</v>
+        <v>1.035126963831304</v>
       </c>
       <c r="L14">
-        <v>1.000941726038798</v>
+        <v>1.027193927225881</v>
       </c>
       <c r="M14">
-        <v>1.012510270285848</v>
+        <v>1.041352215522396</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9748095683639113</v>
+        <v>1.022887599305153</v>
       </c>
       <c r="D15">
-        <v>1.001631224692544</v>
+        <v>1.031620003123302</v>
       </c>
       <c r="E15">
-        <v>0.9861728760979471</v>
+        <v>1.023665009387369</v>
       </c>
       <c r="F15">
-        <v>0.9980385298238272</v>
+        <v>1.037888961093081</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039224867586671</v>
+        <v>1.031545375699528</v>
       </c>
       <c r="J15">
-        <v>1.005111499757762</v>
+        <v>1.029513943424917</v>
       </c>
       <c r="K15">
-        <v>1.016450687002793</v>
+        <v>1.035187565203304</v>
       </c>
       <c r="L15">
-        <v>1.001286941558339</v>
+        <v>1.027262454518513</v>
       </c>
       <c r="M15">
-        <v>1.01292539772809</v>
+        <v>1.041433330704361</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9780690116579577</v>
+        <v>1.023497557613938</v>
       </c>
       <c r="D16">
-        <v>1.004088934474964</v>
+        <v>1.032088463063829</v>
       </c>
       <c r="E16">
-        <v>0.988738693063711</v>
+        <v>1.024181125152565</v>
       </c>
       <c r="F16">
-        <v>1.001003327127364</v>
+        <v>1.038476640478487</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040200211876235</v>
+        <v>1.031665138465034</v>
       </c>
       <c r="J16">
-        <v>1.007100937870891</v>
+        <v>1.029901422827514</v>
       </c>
       <c r="K16">
-        <v>1.018348290393222</v>
+        <v>1.035539974522761</v>
       </c>
       <c r="L16">
-        <v>1.00327700936059</v>
+        <v>1.027661296706492</v>
       </c>
       <c r="M16">
-        <v>1.015317865237418</v>
+        <v>1.041905349609902</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9800858307450773</v>
+        <v>1.023880241729207</v>
       </c>
       <c r="D17">
-        <v>1.005610534803056</v>
+        <v>1.032382254895039</v>
       </c>
       <c r="E17">
-        <v>0.9903290322193419</v>
+        <v>1.024505068886561</v>
       </c>
       <c r="F17">
-        <v>1.002839733705324</v>
+        <v>1.038845386020943</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040799222419833</v>
+        <v>1.031739658428553</v>
       </c>
       <c r="J17">
-        <v>1.008331392373772</v>
+        <v>1.03014436334393</v>
       </c>
       <c r="K17">
-        <v>1.019520900992612</v>
+        <v>1.035760751796629</v>
       </c>
       <c r="L17">
-        <v>1.004508780305028</v>
+        <v>1.027911464893266</v>
       </c>
       <c r="M17">
-        <v>1.016798154635776</v>
+        <v>1.042201340012505</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9812524924417075</v>
+        <v>1.024103481185914</v>
       </c>
       <c r="D18">
-        <v>1.006491009686109</v>
+        <v>1.032553596444101</v>
       </c>
       <c r="E18">
-        <v>0.9912499408535396</v>
+        <v>1.024694090781684</v>
       </c>
       <c r="F18">
-        <v>1.0039026930602</v>
+        <v>1.039060508280587</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041144087374563</v>
+        <v>1.031782906783699</v>
       </c>
       <c r="J18">
-        <v>1.009042958664432</v>
+        <v>1.030286024730531</v>
       </c>
       <c r="K18">
-        <v>1.020198632652817</v>
+        <v>1.035889426335164</v>
       </c>
       <c r="L18">
-        <v>1.005221440612122</v>
+        <v>1.028057378108425</v>
       </c>
       <c r="M18">
-        <v>1.017654399269027</v>
+        <v>1.042373951811447</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9816486721895616</v>
+        <v>1.024179604515228</v>
       </c>
       <c r="D19">
-        <v>1.006790049729957</v>
+        <v>1.032612015673953</v>
       </c>
       <c r="E19">
-        <v>0.9915628258919731</v>
+        <v>1.024758554372811</v>
       </c>
       <c r="F19">
-        <v>1.004263766840773</v>
+        <v>1.039133866032292</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041260917157712</v>
+        <v>1.031797616381508</v>
       </c>
       <c r="J19">
-        <v>1.009284557961912</v>
+        <v>1.03033432050613</v>
       </c>
       <c r="K19">
-        <v>1.020428678201662</v>
+        <v>1.035933283850922</v>
       </c>
       <c r="L19">
-        <v>1.005463467722143</v>
+        <v>1.028107129760413</v>
       </c>
       <c r="M19">
-        <v>1.017945155091977</v>
+        <v>1.042432802111033</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9798704562309482</v>
+        <v>1.023839180622688</v>
       </c>
       <c r="D20">
-        <v>1.005448014529976</v>
+        <v>1.032350736105469</v>
       </c>
       <c r="E20">
-        <v>0.9901591019269719</v>
+        <v>1.024470305438503</v>
       </c>
       <c r="F20">
-        <v>1.00264355624432</v>
+        <v>1.038805819049163</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040735424438761</v>
+        <v>1.03173168567373</v>
       </c>
       <c r="J20">
-        <v>1.008200014510485</v>
+        <v>1.030118302434244</v>
       </c>
       <c r="K20">
-        <v>1.019395738880714</v>
+        <v>1.035737074936482</v>
       </c>
       <c r="L20">
-        <v>1.0043772273341</v>
+        <v>1.027884624793564</v>
       </c>
       <c r="M20">
-        <v>1.016640080630892</v>
+        <v>1.042169586594205</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9739731279192542</v>
+        <v>1.022732739707282</v>
       </c>
       <c r="D21">
-        <v>1.001000821306997</v>
+        <v>1.031501032022638</v>
       </c>
       <c r="E21">
-        <v>0.9855153024834723</v>
+        <v>1.02353401711585</v>
       </c>
       <c r="F21">
-        <v>0.9972783180238167</v>
+        <v>1.037739769999224</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03897318864449</v>
+        <v>1.031514779087063</v>
       </c>
       <c r="J21">
-        <v>1.00460081705294</v>
+        <v>1.02941551825625</v>
       </c>
       <c r="K21">
-        <v>1.015963257597185</v>
+        <v>1.035097994380585</v>
       </c>
       <c r="L21">
-        <v>1.000776388098503</v>
+        <v>1.027161174961488</v>
       </c>
       <c r="M21">
-        <v>1.012311437616535</v>
+        <v>1.041313445401006</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.970171487498305</v>
+        <v>1.022037316619425</v>
       </c>
       <c r="D22">
-        <v>0.998137259605352</v>
+        <v>1.030966596865332</v>
       </c>
       <c r="E22">
-        <v>0.9825310578038654</v>
+        <v>1.022945982412401</v>
       </c>
       <c r="F22">
-        <v>0.993826336348541</v>
+        <v>1.037069863355896</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037822561666639</v>
+        <v>1.031376442414379</v>
       </c>
       <c r="J22">
-        <v>1.002279098961467</v>
+        <v>1.028973279236844</v>
       </c>
       <c r="K22">
-        <v>1.013745708284399</v>
+        <v>1.034695274170842</v>
       </c>
       <c r="L22">
-        <v>0.9984567069347451</v>
+        <v>1.026706267880495</v>
       </c>
       <c r="M22">
-        <v>1.009521094893952</v>
+        <v>1.040774852163036</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9721960122564636</v>
+        <v>1.022405950619563</v>
       </c>
       <c r="D23">
-        <v>0.9996618788282989</v>
+        <v>1.031249928910785</v>
       </c>
       <c r="E23">
-        <v>0.9841193819973613</v>
+        <v>1.023257649058972</v>
       </c>
       <c r="F23">
-        <v>0.9956639996414337</v>
+        <v>1.037424958996634</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038436666167899</v>
+        <v>1.031449962790701</v>
       </c>
       <c r="J23">
-        <v>1.003515631237617</v>
+        <v>1.029207753405106</v>
       </c>
       <c r="K23">
-        <v>1.014927070062864</v>
+        <v>1.034908849257943</v>
       </c>
       <c r="L23">
-        <v>0.9996918617852572</v>
+        <v>1.026947426774365</v>
       </c>
       <c r="M23">
-        <v>1.011007029890851</v>
+        <v>1.041060399059459</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9799678046592809</v>
+        <v>1.023857734288</v>
       </c>
       <c r="D24">
-        <v>1.005521472187855</v>
+        <v>1.032364978158609</v>
       </c>
       <c r="E24">
-        <v>0.9902359068029869</v>
+        <v>1.024486013325014</v>
       </c>
       <c r="F24">
-        <v>1.002732225639217</v>
+        <v>1.038823697539425</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040764265972947</v>
+        <v>1.031735288891686</v>
       </c>
       <c r="J24">
-        <v>1.00825939744068</v>
+        <v>1.030130078366442</v>
       </c>
       <c r="K24">
-        <v>1.019452313476951</v>
+        <v>1.035747773802876</v>
       </c>
       <c r="L24">
-        <v>1.004436688381406</v>
+        <v>1.027896752696816</v>
       </c>
       <c r="M24">
-        <v>1.016711529625299</v>
+        <v>1.04218393470344</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9886080812868705</v>
+        <v>1.025543477721435</v>
       </c>
       <c r="D25">
-        <v>1.012046370458213</v>
+        <v>1.033658053381189</v>
       </c>
       <c r="E25">
-        <v>0.9970723347579628</v>
+        <v>1.025914242776906</v>
       </c>
       <c r="F25">
-        <v>1.010615496027505</v>
+        <v>1.040448390456189</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043288485069473</v>
+        <v>1.032057844835145</v>
       </c>
       <c r="J25">
-        <v>1.013525006543716</v>
+        <v>1.031198746368657</v>
       </c>
       <c r="K25">
-        <v>1.024460516550327</v>
+        <v>1.036717329444482</v>
       </c>
       <c r="L25">
-        <v>1.009716269607712</v>
+        <v>1.028998167766764</v>
       </c>
       <c r="M25">
-        <v>1.02305122521265</v>
+        <v>1.043486382472113</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_125/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_125/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026888833949624</v>
+        <v>0.9952238526099454</v>
       </c>
       <c r="D2">
-        <v>1.034688655946679</v>
+        <v>1.017047680337539</v>
       </c>
       <c r="E2">
-        <v>1.027055598426267</v>
+        <v>1.002333518808432</v>
       </c>
       <c r="F2">
-        <v>1.041745439449038</v>
+        <v>1.016669208172255</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032308198255865</v>
+        <v>1.045167953476827</v>
       </c>
       <c r="J2">
-        <v>1.032049764430267</v>
+        <v>1.017548361945744</v>
       </c>
       <c r="K2">
-        <v>1.03748741061062</v>
+        <v>1.028274514955201</v>
       </c>
       <c r="L2">
-        <v>1.029876442648579</v>
+        <v>1.013760439458313</v>
       </c>
       <c r="M2">
-        <v>1.044524084905264</v>
+        <v>1.027901098171242</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027866144984696</v>
+        <v>0.9998807841729203</v>
       </c>
       <c r="D3">
-        <v>1.035436508606352</v>
+        <v>1.020569778288932</v>
       </c>
       <c r="E3">
-        <v>1.027885583570499</v>
+        <v>1.006051199933278</v>
       </c>
       <c r="F3">
-        <v>1.04268788861945</v>
+        <v>1.020939507284058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03248595447643</v>
+        <v>1.046458902231348</v>
       </c>
       <c r="J3">
-        <v>1.032666883976673</v>
+        <v>1.020374699659713</v>
       </c>
       <c r="K3">
-        <v>1.038044666466242</v>
+        <v>1.030946059812893</v>
       </c>
       <c r="L3">
-        <v>1.030514011875563</v>
+        <v>1.016607235628449</v>
       </c>
       <c r="M3">
-        <v>1.045276878749219</v>
+        <v>1.031311294157933</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028498742283244</v>
+        <v>1.002830229573601</v>
       </c>
       <c r="D4">
-        <v>1.035920201214203</v>
+        <v>1.022800782213393</v>
       </c>
       <c r="E4">
-        <v>1.028423216254621</v>
+        <v>1.008412035268149</v>
       </c>
       <c r="F4">
-        <v>1.043298023170621</v>
+        <v>1.023647898262848</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032599109429178</v>
+        <v>1.047261303376976</v>
       </c>
       <c r="J4">
-        <v>1.033065829382879</v>
+        <v>1.022161813827115</v>
       </c>
       <c r="K4">
-        <v>1.03840436773182</v>
+        <v>1.032631594955665</v>
       </c>
       <c r="L4">
-        <v>1.030926494089154</v>
+        <v>1.018409983654705</v>
       </c>
       <c r="M4">
-        <v>1.045763670943159</v>
+        <v>1.033469051827332</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028764736190355</v>
+        <v>1.004055433186566</v>
       </c>
       <c r="D5">
-        <v>1.036123492101626</v>
+        <v>1.02372755291722</v>
       </c>
       <c r="E5">
-        <v>1.028649373964757</v>
+        <v>1.009394183874936</v>
       </c>
       <c r="F5">
-        <v>1.043554596009449</v>
+        <v>1.02477383406788</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032646232566291</v>
+        <v>1.047590913176677</v>
       </c>
       <c r="J5">
-        <v>1.033233456081535</v>
+        <v>1.022903440795074</v>
       </c>
       <c r="K5">
-        <v>1.038555374351527</v>
+        <v>1.0333301603475</v>
       </c>
       <c r="L5">
-        <v>1.031099884506132</v>
+        <v>1.019158746062934</v>
       </c>
       <c r="M5">
-        <v>1.045968241702309</v>
+        <v>1.034364837629214</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0288094006502</v>
+        <v>1.004260301305254</v>
       </c>
       <c r="D6">
-        <v>1.036157622362469</v>
+        <v>1.023882518330561</v>
       </c>
       <c r="E6">
-        <v>1.028687354835367</v>
+        <v>1.009558494562171</v>
       </c>
       <c r="F6">
-        <v>1.043597679921152</v>
+        <v>1.024962153010331</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032654118504461</v>
+        <v>1.047645808019934</v>
       </c>
       <c r="J6">
-        <v>1.033261596042535</v>
+        <v>1.023027404572661</v>
       </c>
       <c r="K6">
-        <v>1.038580716578932</v>
+        <v>1.033446872400447</v>
       </c>
       <c r="L6">
-        <v>1.031128996490909</v>
+        <v>1.019283940630262</v>
       </c>
       <c r="M6">
-        <v>1.046002585504775</v>
+        <v>1.034514589507317</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028502296311227</v>
+        <v>1.002846658021435</v>
       </c>
       <c r="D7">
-        <v>1.035922917808771</v>
+        <v>1.022813209097096</v>
       </c>
       <c r="E7">
-        <v>1.028426237648432</v>
+        <v>1.008425198967206</v>
       </c>
       <c r="F7">
-        <v>1.043301451226986</v>
+        <v>1.023662992293631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032599740848904</v>
+        <v>1.047265737761326</v>
       </c>
       <c r="J7">
-        <v>1.033068069573541</v>
+        <v>1.022171761101884</v>
       </c>
       <c r="K7">
-        <v>1.03840638632312</v>
+        <v>1.032640968268786</v>
       </c>
       <c r="L7">
-        <v>1.030928811008739</v>
+        <v>1.018420024075029</v>
       </c>
       <c r="M7">
-        <v>1.045766404730327</v>
+        <v>1.033481065433661</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02721907654529</v>
+        <v>0.9968112588772442</v>
       </c>
       <c r="D8">
-        <v>1.034941440640784</v>
+        <v>1.018248154024626</v>
       </c>
       <c r="E8">
-        <v>1.027335975668092</v>
+        <v>1.003599420061068</v>
       </c>
       <c r="F8">
-        <v>1.042063880287148</v>
+        <v>1.018123991380307</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032368657604953</v>
+        <v>1.045611155242569</v>
       </c>
       <c r="J8">
-        <v>1.032258399432114</v>
+        <v>1.018512365832467</v>
       </c>
       <c r="K8">
-        <v>1.037675919563112</v>
+        <v>1.029186488081024</v>
       </c>
       <c r="L8">
-        <v>1.030091925635987</v>
+        <v>1.014730854667941</v>
       </c>
       <c r="M8">
-        <v>1.044778559838646</v>
+        <v>1.029063932931396</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024959530446506</v>
+        <v>0.9856602276340637</v>
       </c>
       <c r="D9">
-        <v>1.033210338294153</v>
+        <v>1.009819196137185</v>
       </c>
       <c r="E9">
-        <v>1.025419263077522</v>
+        <v>0.9947355438792675</v>
       </c>
       <c r="F9">
-        <v>1.039885525481526</v>
+        <v>1.007922970661558</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031947203399675</v>
+        <v>1.042435539326029</v>
       </c>
       <c r="J9">
-        <v>1.030828843421801</v>
+        <v>1.011729724492173</v>
       </c>
       <c r="K9">
-        <v>1.036382043242561</v>
+        <v>1.022754947518786</v>
       </c>
       <c r="L9">
-        <v>1.028616747355216</v>
+        <v>1.007914614594372</v>
       </c>
       <c r="M9">
-        <v>1.043035480055883</v>
+        <v>1.020888797889596</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023454314194847</v>
+        <v>0.977839756997738</v>
       </c>
       <c r="D10">
-        <v>1.032055258775724</v>
+        <v>1.003916012463087</v>
       </c>
       <c r="E10">
-        <v>1.024144526024412</v>
+        <v>0.9885580484315065</v>
       </c>
       <c r="F10">
-        <v>1.038434974015942</v>
+        <v>1.000794672035534</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031656687525171</v>
+        <v>1.040131899282672</v>
       </c>
       <c r="J10">
-        <v>1.029873962585304</v>
+        <v>1.006961043022843</v>
       </c>
       <c r="K10">
-        <v>1.035515010905864</v>
+        <v>1.018214920239088</v>
       </c>
       <c r="L10">
-        <v>1.02763302454747</v>
+        <v>1.003137010294535</v>
       </c>
       <c r="M10">
-        <v>1.041871895214608</v>
+        <v>1.015149593241531</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022802818411988</v>
+        <v>0.9743520944737363</v>
       </c>
       <c r="D11">
-        <v>1.0315548718669</v>
+        <v>1.001286423034925</v>
       </c>
       <c r="E11">
-        <v>1.023593293024358</v>
+        <v>0.9858131859401955</v>
       </c>
       <c r="F11">
-        <v>1.037807282919504</v>
+        <v>0.9976227163144553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031528634482486</v>
+        <v>1.039087285233878</v>
       </c>
       <c r="J11">
-        <v>1.029460061131233</v>
+        <v>1.004832199441642</v>
       </c>
       <c r="K11">
-        <v>1.035138532855439</v>
+        <v>1.016184120010156</v>
       </c>
       <c r="L11">
-        <v>1.027207008016314</v>
+        <v>1.00100769743713</v>
       </c>
       <c r="M11">
-        <v>1.041367699481474</v>
+        <v>1.012589604409046</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022560865349372</v>
+        <v>0.9730405016654567</v>
       </c>
       <c r="D12">
-        <v>1.031368972522701</v>
+        <v>1.000298074430269</v>
       </c>
       <c r="E12">
-        <v>1.023388652268683</v>
+        <v>0.9847825281525504</v>
       </c>
       <c r="F12">
-        <v>1.037574192752013</v>
+        <v>0.9964309846119825</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031480731256632</v>
+        <v>1.038691924446542</v>
       </c>
       <c r="J12">
-        <v>1.029306255566065</v>
+        <v>1.00403134337683</v>
       </c>
       <c r="K12">
-        <v>1.034998535667918</v>
+        <v>1.015419566031718</v>
       </c>
       <c r="L12">
-        <v>1.027048758583374</v>
+        <v>1.00020719572328</v>
       </c>
       <c r="M12">
-        <v>1.041180366235032</v>
+        <v>1.011626882247221</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022612763217663</v>
+        <v>0.9733225873086371</v>
       </c>
       <c r="D13">
-        <v>1.031408850054329</v>
+        <v>1.00051061307076</v>
       </c>
       <c r="E13">
-        <v>1.023432543332632</v>
+        <v>0.985004119560835</v>
       </c>
       <c r="F13">
-        <v>1.037624188549985</v>
+        <v>0.9966872390277188</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031491021975425</v>
+        <v>1.038777067505484</v>
       </c>
       <c r="J13">
-        <v>1.029339250272519</v>
+        <v>1.004203595554346</v>
       </c>
       <c r="K13">
-        <v>1.035028572606837</v>
+        <v>1.015584036019049</v>
       </c>
       <c r="L13">
-        <v>1.027082703969761</v>
+        <v>1.000379347649753</v>
       </c>
       <c r="M13">
-        <v>1.041220552212835</v>
+        <v>1.011833934435633</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022782817647329</v>
+        <v>0.9742440120430689</v>
       </c>
       <c r="D14">
-        <v>1.031539506043062</v>
+        <v>1.001204965910134</v>
       </c>
       <c r="E14">
-        <v>1.023576375070371</v>
+        <v>0.9857282212653731</v>
       </c>
       <c r="F14">
-        <v>1.037788014337435</v>
+        <v>0.9975244875690604</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031524681691402</v>
+        <v>1.039054756016678</v>
       </c>
       <c r="J14">
-        <v>1.029447348819388</v>
+        <v>1.004766209651106</v>
       </c>
       <c r="K14">
-        <v>1.035126963831304</v>
+        <v>1.016121133140249</v>
       </c>
       <c r="L14">
-        <v>1.027193927225881</v>
+        <v>1.000941726038798</v>
       </c>
       <c r="M14">
-        <v>1.041352215522396</v>
+        <v>1.012510270285848</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022887599305153</v>
+        <v>0.974809568363911</v>
       </c>
       <c r="D15">
-        <v>1.031620003123302</v>
+        <v>1.001631224692544</v>
       </c>
       <c r="E15">
-        <v>1.023665009387369</v>
+        <v>0.9861728760979465</v>
       </c>
       <c r="F15">
-        <v>1.037888961093081</v>
+        <v>0.9980385298238271</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031545375699528</v>
+        <v>1.039224867586671</v>
       </c>
       <c r="J15">
-        <v>1.029513943424917</v>
+        <v>1.005111499757762</v>
       </c>
       <c r="K15">
-        <v>1.035187565203304</v>
+        <v>1.016450687002793</v>
       </c>
       <c r="L15">
-        <v>1.027262454518513</v>
+        <v>1.001286941558338</v>
       </c>
       <c r="M15">
-        <v>1.041433330704361</v>
+        <v>1.012925397728089</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023497557613938</v>
+        <v>0.9780690116579582</v>
       </c>
       <c r="D16">
-        <v>1.032088463063829</v>
+        <v>1.004088934474965</v>
       </c>
       <c r="E16">
-        <v>1.024181125152565</v>
+        <v>0.9887386930637115</v>
       </c>
       <c r="F16">
-        <v>1.038476640478487</v>
+        <v>1.001003327127364</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031665138465034</v>
+        <v>1.040200211876236</v>
       </c>
       <c r="J16">
-        <v>1.029901422827514</v>
+        <v>1.007100937870891</v>
       </c>
       <c r="K16">
-        <v>1.035539974522761</v>
+        <v>1.018348290393222</v>
       </c>
       <c r="L16">
-        <v>1.027661296706492</v>
+        <v>1.00327700936059</v>
       </c>
       <c r="M16">
-        <v>1.041905349609902</v>
+        <v>1.015317865237419</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023880241729207</v>
+        <v>0.9800858307450779</v>
       </c>
       <c r="D17">
-        <v>1.032382254895039</v>
+        <v>1.005610534803056</v>
       </c>
       <c r="E17">
-        <v>1.024505068886561</v>
+        <v>0.990329032219342</v>
       </c>
       <c r="F17">
-        <v>1.038845386020943</v>
+        <v>1.002839733705325</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031739658428553</v>
+        <v>1.040799222419833</v>
       </c>
       <c r="J17">
-        <v>1.03014436334393</v>
+        <v>1.008331392373772</v>
       </c>
       <c r="K17">
-        <v>1.035760751796629</v>
+        <v>1.019520900992613</v>
       </c>
       <c r="L17">
-        <v>1.027911464893266</v>
+        <v>1.004508780305029</v>
       </c>
       <c r="M17">
-        <v>1.042201340012505</v>
+        <v>1.016798154635777</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024103481185914</v>
+        <v>0.9812524924417082</v>
       </c>
       <c r="D18">
-        <v>1.032553596444101</v>
+        <v>1.006491009686109</v>
       </c>
       <c r="E18">
-        <v>1.024694090781684</v>
+        <v>0.9912499408535398</v>
       </c>
       <c r="F18">
-        <v>1.039060508280587</v>
+        <v>1.0039026930602</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031782906783699</v>
+        <v>1.041144087374563</v>
       </c>
       <c r="J18">
-        <v>1.030286024730531</v>
+        <v>1.009042958664432</v>
       </c>
       <c r="K18">
-        <v>1.035889426335164</v>
+        <v>1.020198632652818</v>
       </c>
       <c r="L18">
-        <v>1.028057378108425</v>
+        <v>1.005221440612122</v>
       </c>
       <c r="M18">
-        <v>1.042373951811447</v>
+        <v>1.017654399269028</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024179604515228</v>
+        <v>0.9816486721895622</v>
       </c>
       <c r="D19">
-        <v>1.032612015673953</v>
+        <v>1.006790049729958</v>
       </c>
       <c r="E19">
-        <v>1.024758554372811</v>
+        <v>0.9915628258919734</v>
       </c>
       <c r="F19">
-        <v>1.039133866032292</v>
+        <v>1.004263766840774</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031797616381508</v>
+        <v>1.041260917157712</v>
       </c>
       <c r="J19">
-        <v>1.03033432050613</v>
+        <v>1.009284557961912</v>
       </c>
       <c r="K19">
-        <v>1.035933283850922</v>
+        <v>1.020428678201663</v>
       </c>
       <c r="L19">
-        <v>1.028107129760413</v>
+        <v>1.005463467722144</v>
       </c>
       <c r="M19">
-        <v>1.042432802111033</v>
+        <v>1.017945155091978</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023839180622688</v>
+        <v>0.9798704562309477</v>
       </c>
       <c r="D20">
-        <v>1.032350736105469</v>
+        <v>1.005448014529976</v>
       </c>
       <c r="E20">
-        <v>1.024470305438503</v>
+        <v>0.9901591019269713</v>
       </c>
       <c r="F20">
-        <v>1.038805819049163</v>
+        <v>1.00264355624432</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03173168567373</v>
+        <v>1.040735424438761</v>
       </c>
       <c r="J20">
-        <v>1.030118302434244</v>
+        <v>1.008200014510484</v>
       </c>
       <c r="K20">
-        <v>1.035737074936482</v>
+        <v>1.019395738880714</v>
       </c>
       <c r="L20">
-        <v>1.027884624793564</v>
+        <v>1.004377227334099</v>
       </c>
       <c r="M20">
-        <v>1.042169586594205</v>
+        <v>1.016640080630891</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022732739707282</v>
+        <v>0.9739731279192524</v>
       </c>
       <c r="D21">
-        <v>1.031501032022638</v>
+        <v>1.001000821306995</v>
       </c>
       <c r="E21">
-        <v>1.02353401711585</v>
+        <v>0.9855153024834704</v>
       </c>
       <c r="F21">
-        <v>1.037739769999224</v>
+        <v>0.9972783180238148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031514779087063</v>
+        <v>1.038973188644489</v>
       </c>
       <c r="J21">
-        <v>1.02941551825625</v>
+        <v>1.004600817052938</v>
       </c>
       <c r="K21">
-        <v>1.035097994380585</v>
+        <v>1.015963257597183</v>
       </c>
       <c r="L21">
-        <v>1.027161174961488</v>
+        <v>1.000776388098501</v>
       </c>
       <c r="M21">
-        <v>1.041313445401006</v>
+        <v>1.012311437616533</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.022037316619425</v>
+        <v>0.9701714874983054</v>
       </c>
       <c r="D22">
-        <v>1.030966596865332</v>
+        <v>0.9981372596053526</v>
       </c>
       <c r="E22">
-        <v>1.022945982412401</v>
+        <v>0.9825310578038655</v>
       </c>
       <c r="F22">
-        <v>1.037069863355896</v>
+        <v>0.9938263363485416</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031376442414379</v>
+        <v>1.03782256166664</v>
       </c>
       <c r="J22">
-        <v>1.028973279236844</v>
+        <v>1.002279098961467</v>
       </c>
       <c r="K22">
-        <v>1.034695274170842</v>
+        <v>1.013745708284399</v>
       </c>
       <c r="L22">
-        <v>1.026706267880495</v>
+        <v>0.9984567069347453</v>
       </c>
       <c r="M22">
-        <v>1.040774852163036</v>
+        <v>1.009521094893952</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022405950619563</v>
+        <v>0.9721960122564631</v>
       </c>
       <c r="D23">
-        <v>1.031249928910785</v>
+        <v>0.9996618788282985</v>
       </c>
       <c r="E23">
-        <v>1.023257649058972</v>
+        <v>0.9841193819973608</v>
       </c>
       <c r="F23">
-        <v>1.037424958996634</v>
+        <v>0.9956639996414334</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031449962790701</v>
+        <v>1.038436666167899</v>
       </c>
       <c r="J23">
-        <v>1.029207753405106</v>
+        <v>1.003515631237617</v>
       </c>
       <c r="K23">
-        <v>1.034908849257943</v>
+        <v>1.014927070062864</v>
       </c>
       <c r="L23">
-        <v>1.026947426774365</v>
+        <v>0.9996918617852567</v>
       </c>
       <c r="M23">
-        <v>1.041060399059459</v>
+        <v>1.01100702989085</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023857734288</v>
+        <v>0.9799678046592809</v>
       </c>
       <c r="D24">
-        <v>1.032364978158609</v>
+        <v>1.005521472187855</v>
       </c>
       <c r="E24">
-        <v>1.024486013325014</v>
+        <v>0.9902359068029869</v>
       </c>
       <c r="F24">
-        <v>1.038823697539425</v>
+        <v>1.002732225639217</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031735288891686</v>
+        <v>1.040764265972947</v>
       </c>
       <c r="J24">
-        <v>1.030130078366442</v>
+        <v>1.00825939744068</v>
       </c>
       <c r="K24">
-        <v>1.035747773802876</v>
+        <v>1.019452313476951</v>
       </c>
       <c r="L24">
-        <v>1.027896752696816</v>
+        <v>1.004436688381406</v>
       </c>
       <c r="M24">
-        <v>1.04218393470344</v>
+        <v>1.016711529625299</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025543477721435</v>
+        <v>0.9886080812868706</v>
       </c>
       <c r="D25">
-        <v>1.033658053381189</v>
+        <v>1.012046370458214</v>
       </c>
       <c r="E25">
-        <v>1.025914242776906</v>
+        <v>0.9970723347579628</v>
       </c>
       <c r="F25">
-        <v>1.040448390456189</v>
+        <v>1.010615496027506</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032057844835145</v>
+        <v>1.043288485069474</v>
       </c>
       <c r="J25">
-        <v>1.031198746368657</v>
+        <v>1.013525006543716</v>
       </c>
       <c r="K25">
-        <v>1.036717329444482</v>
+        <v>1.024460516550327</v>
       </c>
       <c r="L25">
-        <v>1.028998167766764</v>
+        <v>1.009716269607712</v>
       </c>
       <c r="M25">
-        <v>1.043486382472113</v>
+        <v>1.02305122521265</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
